--- a/codes_anal.xlsx
+++ b/codes_anal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwwaal\projects\paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AECE6C-8634-4D24-884B-9D1354D96D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53350165-FCC7-404B-AAB1-19789F95A4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9161E216-9210-48B0-AFEF-35303DFF9E5E}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206"/>
+      <selection activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,20 +2624,44 @@
       <c r="A202" s="2">
         <v>3909</v>
       </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>3994</v>
       </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>3656</v>
       </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>4600</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
